--- a/finetuning/it_datasets/qa_dataset/qa_it_msaken_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_msaken_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,48 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for somewhere to stay, check out Msaken located at PHGJ+63H Msaken, Kazmet, M'saken. 
-This top-rated destination is perfect for Residence lovers and offers a range of Residence to choose from. 
-With a rating of 5, it's a must-visit spot. To get there, use these GPS coordinates: 35.72917, 10.58082. For more details, visit their website at https://plateforme.freelance.com/inscription/freelance/email or call them at 25 407 484.</t>
+          <t>Msaken is a residence located in Msaken (Tunisia), with coordinates (35.72917, 10.58082). The residence has a rating of 5 and offers a website for further information.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Msaken can you find a highly-rated Residence with a 5-star rating and GPS coordinates of 35.72917, 10.58082?</t>
+          <t>Day Plan:
+Morning: Explore the serene and picturesque Sabghet sidi el hannie natural reserve, immerse yourself in the beauty of nature, and capture breathtaking views.
+Mid-Morning: Visit the notable Msaken residence for a comfortable and memorable stay, soak in its luxurious amenities, and savor the tranquility of its surroundings.
+Midday: Indulge in a delectable culinary experience at the highly-rated Restaurant el baraka, sample authentic local cuisine, and relish the vibrant atmosphere.
+Afternoon: Take a guided tour of the enchanting Sabghet sidi el hannie natural reserve, discover its hidden gems, and learn about its ecological significance.
+Evening: Engage in cultural immersion at the Msaken Museum, delve into the rich history and heritage of the region, and appreciate the intricate artistry and craftsmanship on display.
+Night: Unwind and rejuvenate with a relaxing and rejuvenating spa treatment at the Msaken residence, soothe your body and mind, and prepare for a restful night's sleep.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Msaken, a notable residence situated in PHGJ+63H Msaken, Kazmet, M'saken, offers a serene and comfortable stay. With a 5-star rating and 3 reviews, it is conveniently located at (35.72917, 10.58082). Whether seeking a relaxing getaway or a convenient base for exploring Msaken, this residence is an ideal choice.
+Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.
+Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,12 +819,48 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Msaken and looking for a comfortable place to stay, check out Msaken, located at PHGJ+63H Msaken, Kazmet, M'saken. This top-rated residence offers a cozy and convenient stay for travelers and locals alike. With a rating of 5, it's a highly recommended choice. To get there, use these GPS coordinates: 35.72917, 10.58082. For more details, visit their website at https://plateforme.freelance.com/inscription/freelance/email or call them at 25 407 484.</t>
+          <t>Msaken, a notable residence situated in PHGJ+63H Msaken, Kazmet, M'saken, offers a serene and comfortable stay. With a 5-star rating and 3 reviews, it is conveniently located at (35.72917, 10.58082). Whether seeking a relaxing getaway or a convenient base for exploring Msaken, this residence is an ideal choice.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Msaken can you find a highly-rated (5 stars) and cozy accommodation for a comfortable stay?</t>
+          <t>Day Plan:
+Morning: Explore Sabghet sidi el hannie, a picturesque natural reserve offering tranquility in nature.
+Mid-Morning: Visit Msaken, a residence with cultural significance, and delve into its rich history and architecture.
+Midday: Indulge in a delicious local cuisine experience at Restaurant el baraka, highly rated for its delectable dishes and welcoming ambiance.
+Afternoon: Engage in outdoor activities at Msaken Park, enjoying the scenic beauty and engaging in recreational activities.
+Evening: Experience cultural immersion at the local market, soak in the vibrant atmosphere, and interact with friendly locals.
+Night: Relax at your hotel, unwind with a soothing spa treatment, and savor the serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Msaken is a residence located in Msaken (Tunisia), with coordinates (35.72917, 10.58082). The residence has a rating of 5 and offers a website for further information.
+Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.
+Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -883,12 +958,48 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for something fun to do, check out Sabghet sidi el hannie located at FFRW+G69 Sabghet sidi el hannie, Msaken. This top-rated destination is perfect for Reserve naturelle lovers. With a rating of 5, it's a must-visit spot. To get there, go to these GPS coordinates: 35.72917, 10.58082.</t>
+          <t>Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Which must-visit top-rated destination for Reserve naturelle enthusiasts is located in Msaken with GPS coordinates 35.72917, 10.58082?</t>
+          <t>Day Plan:
+Morning: Explore Sabghet sidi el hannie natural reserve
+Mid-Morning: Visit Msaken residence
+Midday: Try local cuisine at Restaurant el baraka
+Afternoon: Enjoy scenic views at any convenient location
+Evening: Participate in any event or activity at a suitable venue
+Night: Relax with any activity at Msaken residence</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Msaken, a notable residence situated in PHGJ+63H Msaken, Kazmet, M'saken, offers a serene and comfortable stay. With a 5-star rating and 3 reviews, it is conveniently located at (35.72917, 10.58082). Whether seeking a relaxing getaway or a convenient base for exploring Msaken, this residence is an ideal choice.
+Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.
+Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,14 +1109,48 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for a great Restaurant, check out Restaurant el baraka route de msaken located at PM78+VMJ Restaurant el baraka route de msaken, Ouardanine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.714883160537, 10.66716619677. For more details, visit their website at https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL or call them at 53 807 599.</t>
+          <t>Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What highly-rated Restaurant with specific GPS coordinates and operating hours is located in Msaken, Tunisia, specializing in Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore Sabghet sidi el hannie, a natural reserve with serene surroundings and picturesque views.
+Mid-Morning: Visit Msaken, a residence with a historical significance and cultural charm. Explore its streets and learn about its rich heritage.
+Midday: Dine at Restaurant el baraka, a highly-rated restaurant offering a wide range of local cuisine. Enjoy the flavors and aromas of traditional Tunisian dishes.
+Afternoon: Take a guided tour of the local landmarks, such as historical buildings or religious sites, to delve into the cultural heritage of the region.
+Evening: Engage in cultural immersion by attending a local event or performance that showcases traditional music, dance, or theater. Experience the vibrant and lively spirit of the local community.
+Night: Relax and unwind at a local spa or hotel, indulging in rejuvenating treatments or massages to soothe tired muscles and prepare for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Msaken is a residence located in Msaken (Tunisia), with coordinates (35.72917, 10.58082). The residence has a rating of 5 and offers a website for further information.
+Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.
+Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
